--- a/Datos/Database by set/Set with text box/Xlsx sets/Amonkhet Tokens (TAKH).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Amonkhet Tokens (TAKH).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,700 +444,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angel of Sanctions</t>
+          <t>('Angel of Sanctions', ['Token Creature — Zombie Angel', 'Flying', 'When Angel of Sanctions enters the battlefield, you may exile target nonland permanent an opponent controls until Angel of Sanctions leaves the battlefield.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Zombie Angel</t>
+          <t>('Anointer Priest', ['Token Creature — Zombie Human Cleric', 'Whenever a creature token enters the battlefield under your control, you gain 1 life.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Aven Initiate', ['Token Creature — Zombie Bird Warrior', 'Flying', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When Angel of Sanctions enters the battlefield, you may exile target nonland permanent an opponent controls until Angel of Sanctions leaves the battlefield.</t>
+          <t>('Aven Wind Guide', ['Token Creature — Zombie Bird Warrior', 'Flying, vigilance', 'Creature tokens you control have flying and vigilance.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/4</t>
+          <t>('Beast', ['Token Creature — Beast', '4/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anointer Priest</t>
+          <t>('Cat', ['Token Creature — Cat', 'Lifelink (Damage dealt by this creature also causes you to gain that much life.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Token Creature — Zombie Human Cleric</t>
+          <t>('Drake', ['Token Creature — Drake', 'Flying', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Whenever a creature token enters the battlefield under your control, you gain 1 life.</t>
+          <t>('Gideon of the Trials Emblem', ['Emblem — Gideon', 'As long as you control a Gideon planeswalker, you can’t lose the game and your opponents can’t win the game.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/3</t>
+          <t>('Glyph Keeper', ['Token Creature — Zombie Sphinx', 'Flying', 'Whenever Glyph Keeper becomes the target of a spell or ability for the first time each turn, counter that spell or ability.', '5/3'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aven Initiate</t>
+          <t>('Heart-Piercer Manticore', ['Token Creature — Zombie Manticore', 'When Heart-Piercer Manticore enters the battlefield, you may sacrifice another creature. When you do, Heart-Piercer Manticore deals damage equal to that creature’s power to any target.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Token Creature — Zombie Bird Warrior</t>
+          <t>('Hippo', ['Token Creature — Hippo', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Honored Hydra', ['Token Creature — Zombie Snake Hydra', 'Trample', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/2</t>
+          <t>('Insect', ['Token Creature — Insect', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aven Wind Guide</t>
+          <t>('Labyrinth Guardian', ['Token Creature — Zombie Illusion Warrior', 'When Labyrinth Guardian becomes the target of a spell, sacrifice it.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Token Creature — Zombie Bird Warrior</t>
+          <t>("Oketra's Attendant", ['Token Creature — Zombie Bird Soldier', 'Flying', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Flying, vigilance</t>
+          <t>('Punchcard', ['Card'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Creature tokens you control have flying and vigilance.</t>
+          <t>('Sacred Cat', ['Token Creature — Zombie Cat', 'Lifelink', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2/3</t>
+          <t>('Snake', ['Token Creature — Snake', 'Deathtouch', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Tah-Crop Skirmisher', ['Token Creature — Zombie Naga Warrior', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Temmet, Vizier of Naktamun', ['Legendary Token Creature — Zombie Human Cleric', 'At the beginning of combat on your turn, target creature token you control gets +1/+1 until end of turn and can’t be blocked this turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4/2</t>
+          <t>('Trueheart Duelist', ['Token Creature — Zombie Human Warrior', 'Trueheart Duelist can block an additional creature each combat.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>('Unwavering Initiate', ['Token Creature — Zombie Human Warrior', 'Vigilance', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Token Creature — Cat</t>
+          <t>('Vizier of Many Faces', ['Token Creature — Zombie Shapeshifter Cleric', 'You may have Vizier of Many Faces enter the battlefield as a copy of any creature on the battlefield, except has no mana cost, it’s white, and it’s a Zombie in addition to its other types.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lifelink (Damage dealt by this creature also causes you to gain that much life.)</t>
+          <t>('Warrior', ['Token Creature — Warrior', 'Vigilance', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Wurm', ['Token Creature — Wurm', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Drake</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Drake</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Gideon of the Trials Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Emblem — Gideon</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>As long as you control a Gideon planeswalker, you can’t lose the game and your opponents can’t win the game.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Glyph Keeper</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Sphinx</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Whenever Glyph Keeper becomes the target of a spell or ability for the first time each turn, counter that spell or ability.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>5/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Heart-Piercer Manticore</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Manticore</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>When Heart-Piercer Manticore enters the battlefield, you may sacrifice another creature. When you do, Heart-Piercer Manticore deals damage equal to that creature’s power to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Hippo</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Token Creature — Hippo</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Honored Hydra</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Snake Hydra</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Token Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Labyrinth Guardian</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Illusion Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>When Labyrinth Guardian becomes the target of a spell, sacrifice it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Oketra's Attendant</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Bird Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Punchcard</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Punchcard</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Sacred Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Lifelink</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Token Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Deathtouch</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Tah-Crop Skirmisher</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Naga Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Temmet, Vizier of Naktamun</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Legendary Token Creature — Zombie Human Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>At the beginning of combat on your turn, target creature token you control gets +1/+1 until end of turn and can’t be blocked this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Trueheart Duelist</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Trueheart Duelist can block an additional creature each combat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Unwavering Initiate</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Vizier of Many Faces</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie Shapeshifter Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>You may have Vizier of Many Faces enter the battlefield as a copy of any creature on the battlefield, except has no mana cost, it’s white, and it’s a Zombie in addition to its other types.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Token Creature — Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Wurm</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Token Creature — Wurm</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
